--- a/biology/Botanique/Salix_humilis/Salix_humilis.xlsx
+++ b/biology/Botanique/Salix_humilis/Salix_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix humilis est une espèce végétale de la famille des Salicaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 déc. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 déc. 2012) :
 variété Salix humilis var. humilis ;
 variété Salix humilis var. tristis.</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix humilis est un arbuste se clonant par marcottage[2] ne dépassant pas 3 m de haut. Les chatons apparaissent avant l'émergence des feuilles[3].
-Ses pétioles mesurent de 1,5 à 12 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix humilis est un arbuste se clonant par marcottage ne dépassant pas 3 m de haut. Les chatons apparaissent avant l'émergence des feuilles.
+Ses pétioles mesurent de 1,5 à 12 mm de long.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Amérique du Nord, du Manitoba jusqu'à Terre-Neuve, du Labrador jusqu'en Floride[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Amérique du Nord, du Manitoba jusqu'à Terre-Neuve, du Labrador jusqu'en Floride.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La plante se rencontre naturellement au Canada et aux États-Unis d'Amérique, d'après Catalogue of Life                                   (16 mai 2016)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La plante se rencontre naturellement au Canada et aux États-Unis d'Amérique, d'après Catalogue of Life                                   (16 mai 2016).
 USA : Alabama, Arkansas, Connecticut, District de Columbia, Delaware, Florida, Georgia, Iowa, Illinois, Indiana, Kansas, Kentucky, Louisiane, Massachusetts, Maryland, Maine, Michigan, Minnesota, Missouri, Mississippi, North Carolina, North Dakota, Nebraska, New Hampshire, New Jersey, New York, Ohio, Oklahoma, Pennsylvanie, Rhode Island, South Carolina, South Dakota, Tennessee, Texas, Virginia, Vermont, Wisconsin, West Virginia ;
 Canada : Labrador, Manitoba, New Brunswick, Newfoundland, Nouvelle-Écosse, Ontario, Prince Edward Island, Québec.</t>
         </is>
